--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="网页" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,18 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>内   容</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>计划标题</t>
   </si>
   <si>
     <t>责任部门/人</t>
   </si>
   <si>
-    <t>计划完成时间</t>
+    <t>预计完成时间</t>
+  </si>
+  <si>
+    <t>计划状态</t>
   </si>
   <si>
     <t>备注</t>
@@ -39,12 +42,18 @@
     <t>客服部</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>小区总水、电表费用结算并过户</t>
   </si>
   <si>
     <t>整理规范所有小区分包方和供应商，签订合同（电梯、消防、清洁等）</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>组织全面清理楼道及公共区域大件垃圾，改善小区卫生环境</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>启动节能水泵改造评估</t>
   </si>
   <si>
+    <t>未开始</t>
+  </si>
+  <si>
     <t>全面恢复小区门禁系统</t>
   </si>
   <si>
@@ -79,6 +91,21 @@
   </si>
   <si>
     <t>全面恢复监控系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;td scope="row" data-label="商谈问题"&gt;新老物业交接时间&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;td data-label="金岸物业"&gt;未表态&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;td data-label="业委会意见"&gt;业委会已发函告知业主，金岸物业，开发商，工作站，街道办，住建局，派出所等单位，新老物业交接的时间是2018年11月30号早上9点整。&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;td data-label="商谈结果"&gt;待金岸物业明确回复&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/tr&gt;</t>
   </si>
 </sst>
 </file>
@@ -86,20 +113,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,154 +577,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1057,22 +1083,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,258 +1115,325 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>20181215</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>43600</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>20181216</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>43495</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>20181217</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43495</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>20181218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43524</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>20181219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43485</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>20181220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>43495</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>20181221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
         <v>43495</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>20181222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
         <v>43495</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>20181223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
         <v>43495</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>20181224</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
         <v>43475</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>20181225</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>43496</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>20181226</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
         <v>43496</v>
       </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="1"/>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,14 +1445,61 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C2:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="409.5" spans="3:3">
+      <c r="C2" s="2" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A2&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B2&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C2&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;Sheet1!$D2&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E2&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181215&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;建立业主档案和银行账户托收协议的办理&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;43600&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="10:10">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="10:10">
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="10:10">
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="10:10">
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10">
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>计划编号</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>全面恢复监控系统</t>
+  </si>
+  <si>
+    <t>小区物业服务合同放到网上供业主随时查看</t>
+  </si>
+  <si>
+    <t>业委会</t>
+  </si>
+  <si>
+    <t>统计，公布每个电梯按钮，显示屏的情况</t>
+  </si>
+  <si>
+    <t>统计，公布走廊灯，灯罩的情况</t>
   </si>
   <si>
     <t xml:space="preserve">      &lt;td scope="row" data-label="商谈问题"&gt;新老物业交接时间&lt;/td&gt;</t>
@@ -722,15 +734,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1085,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1129,10 +1138,10 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>43600</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1146,10 +1155,10 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>43495</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1163,10 +1172,10 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>43495</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1180,10 +1189,10 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>43524</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1197,10 +1206,10 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>43485</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1214,10 +1223,10 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>43495</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1231,10 +1240,10 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>43495</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1248,10 +1257,10 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>43495</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1265,10 +1274,10 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>43495</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1282,10 +1291,10 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>43475</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1299,10 +1308,10 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>43496</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1316,124 +1325,163 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>43496</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>20181227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43462</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>20181228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43495</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>20181229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43495</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1445,58 +1493,910 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J7"/>
+  <dimension ref="C2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="409.5" spans="3:3">
-      <c r="C2" s="2" t="str">
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A2&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B2&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C2&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;Sheet1!$D2&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D2,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E2&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F2&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;20181215&lt;/td&gt;
 &lt;td data-label="计划标题"&gt;建立业主档案和银行账户托收协议的办理&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;43600&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年05月15日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="10:10">
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
+      <c r="C3" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A3&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B3&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C3&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D3,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E3&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F3&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181216&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;小区总水、电表费用结算并过户&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="10:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A4&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B4&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C4&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D4,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E4&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F4&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181217&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;整理规范所有小区分包方和供应商，签订合同（电梯、消防、清洁等）&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
       <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="10:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A5&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B5&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C5&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D5,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E5&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F5&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181218&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;组织全面清理楼道及公共区域大件垃圾，改善小区卫生环境&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年02月28日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="10:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A6&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B6&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C6&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D6,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E6&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F6&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181219&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;改造补种小区绿化，消除黄土裸露&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月20日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
       <c r="J6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="10:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A7&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B7&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C7&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D7,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E7&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F7&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181220&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;消防设施设备检查，更换标识标牌&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A8&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B8&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C8&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D8,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E8&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F8&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181221&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;开展小区消防灭火应急演练2次&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A9&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B9&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C9&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D9,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E9&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F9&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181222&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;三栋2套速递柜搬迁移位&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A10&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B10&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C10&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D10,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E10&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F10&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181223&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;启动节能水泵改造评估&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A11&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B11&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C11&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D11,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E11&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F11&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181224&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;全面恢复小区门禁系统&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A12&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B12&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C12&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D12,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E12&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F12&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181225&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;修补小区地面损坏瓷砖&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A13&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B13&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C13&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D13,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E13&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F13&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181226&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;全面恢复监控系统&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A14&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B14&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C14&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D14,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E14&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F14&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181227&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;小区物业服务合同放到网上供业主随时查看&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2018年12月28日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D15,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F15&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181228&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;统计，公布每个电梯按钮，显示屏的情况&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A16&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B16&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C16&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D16,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E16&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F16&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181229&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;统计，公布走廊灯，灯罩的情况&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A17&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B17&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C17&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D17,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E17&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F17&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D18,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F18&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D19,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F19&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D20,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F20&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D21,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F21&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D22,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F22&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D23,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F23&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D24,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F24&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D25,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F25&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D26,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F26&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D27,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F27&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D28,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F28&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D29,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F29&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D30,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F30&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D31,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F31&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D32,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F32&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D33,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F33&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D34,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F34&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D35,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F35&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D36,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F36&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D37,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F37&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D38,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F38&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D39,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F39&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D40,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F40&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D41,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F41&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D42,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F42&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D43,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F43&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D44,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F44&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D45,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F45&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="网页" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>计划编号</t>
   </si>
@@ -51,9 +51,6 @@
     <t>整理规范所有小区分包方和供应商，签订合同（电梯、消防、清洁等）</t>
   </si>
   <si>
-    <t>已完成</t>
-  </si>
-  <si>
     <t>组织全面清理楼道及公共区域大件垃圾，改善小区卫生环境</t>
   </si>
   <si>
@@ -118,367 +115,36 @@
   </si>
   <si>
     <t xml:space="preserve">    &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -486,251 +152,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,61 +165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1086,26 +463,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1128,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>20181215</v>
       </c>
@@ -1144,8 +521,11 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>20181216</v>
       </c>
@@ -1161,8 +541,11 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20181217</v>
       </c>
@@ -1176,18 +559,21 @@
         <v>43495</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>20181218</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>43524</v>
@@ -1195,16 +581,19 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>20181219</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>43485</v>
@@ -1212,16 +601,19 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>20181220</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>43495</v>
@@ -1229,16 +621,19 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>20181221</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>43495</v>
@@ -1246,16 +641,19 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>20181222</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>43495</v>
@@ -1263,33 +661,39 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>20181223</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>43495</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>20181224</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>43475</v>
@@ -1297,50 +701,59 @@
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>20181225</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>43496</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>20181226</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <v>43496</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>20181227</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>43462</v>
@@ -1348,16 +761,19 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>20181228</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>43495</v>
@@ -1365,22 +781,28 @@
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>20181229</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>43495</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -1484,27 +906,25 @@
       <c r="E41" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:10">
       <c r="C2" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A2&amp;"&lt;/td&gt;
@@ -1520,7 +940,7 @@
 &lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年05月15日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
     </row>
@@ -1540,11 +960,11 @@
 &lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:10">
@@ -1562,12 +982,12 @@
 &lt;td data-label="计划标题"&gt;整理规范所有小区分包方和供应商，签订合同（电梯、消防、清洁等）&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -1586,11 +1006,11 @@
 &lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年02月28日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:10">
@@ -1609,11 +1029,11 @@
 &lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月20日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -1632,14 +1052,14 @@
 &lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A8&amp;"&lt;/td&gt;
@@ -1655,11 +1075,11 @@
 &lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A9&amp;"&lt;/td&gt;
@@ -1675,11 +1095,11 @@
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A10&amp;"&lt;/td&gt;
@@ -1695,11 +1115,11 @@
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A11&amp;"&lt;/td&gt;
@@ -1715,11 +1135,11 @@
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A12&amp;"&lt;/td&gt;
@@ -1735,11 +1155,11 @@
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A13&amp;"&lt;/td&gt;
@@ -1755,11 +1175,11 @@
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A14&amp;"&lt;/td&gt;
@@ -1775,11 +1195,11 @@
 &lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2018年12月28日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
       <c r="C15" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A15&amp;"&lt;/td&gt;
@@ -1795,11 +1215,11 @@
 &lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
       <c r="C16" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A16&amp;"&lt;/td&gt;
@@ -1815,7 +1235,7 @@
 &lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
     </row>
@@ -2400,25 +1820,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="网页" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>计划编号</t>
   </si>
@@ -45,6 +45,9 @@
     <t>进行中</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>小区总水、电表费用结算并过户</t>
   </si>
   <si>
@@ -96,12 +99,24 @@
     <t>业委会</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>统计，公布每个电梯按钮，显示屏的情况</t>
   </si>
   <si>
     <t>统计，公布走廊灯，灯罩的情况</t>
   </si>
   <si>
+    <t>罗湖金岸小区电梯更新改造工程</t>
+  </si>
+  <si>
+    <t>恢复小区观赏池</t>
+  </si>
+  <si>
+    <t>更换大堂玻璃门地弹簧</t>
+  </si>
+  <si>
     <t xml:space="preserve">      &lt;td scope="row" data-label="商谈问题"&gt;新老物业交接时间&lt;/td&gt;</t>
   </si>
   <si>
@@ -115,36 +130,375 @@
   </si>
   <si>
     <t xml:space="preserve">    &lt;/tr&gt;</t>
-  </si>
-  <si>
-    <t>无</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,27 +506,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -463,45 +1109,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.425" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.425" customWidth="1"/>
+    <col min="5" max="5" width="10.5666666666667" customWidth="1"/>
+    <col min="6" max="6" width="35.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -515,14 +1161,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>43600</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -530,19 +1176,19 @@
         <v>20181216</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>43495</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -550,19 +1196,19 @@
         <v>20181217</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>43495</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -570,19 +1216,19 @@
         <v>20181218</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
         <v>43524</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,19 +1236,19 @@
         <v>20181219</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>43485</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -610,19 +1256,19 @@
         <v>20181220</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>43495</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -630,19 +1276,19 @@
         <v>20181221</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>43495</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -650,19 +1296,19 @@
         <v>20181222</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
         <v>43495</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -670,19 +1316,19 @@
         <v>20181223</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>43495</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -690,19 +1336,19 @@
         <v>20181224</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
         <v>43475</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -710,19 +1356,19 @@
         <v>20181225</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
         <v>43496</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -730,19 +1376,19 @@
         <v>20181226</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
         <v>43496</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -750,19 +1396,19 @@
         <v>20181227</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3">
         <v>43462</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -770,19 +1416,19 @@
         <v>20181228</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>43495</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,141 +1436,191 @@
         <v>20181229</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3">
         <v>43495</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20181230</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>20181214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43475</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20181213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43475</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10">
+    <row r="2" spans="3:3">
       <c r="C2" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A2&amp;"&lt;/td&gt;
@@ -964,7 +1660,7 @@
 &lt;/tr&gt;</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:10">
@@ -987,7 +1683,7 @@
 &lt;/tr&gt;</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -1010,7 +1706,7 @@
 &lt;/tr&gt;</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:10">
@@ -1033,7 +1729,7 @@
 &lt;/tr&gt;</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -1056,10 +1752,10 @@
 &lt;/tr&gt;</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
       <c r="C8" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A8&amp;"&lt;/td&gt;
@@ -1079,7 +1775,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" spans="3:3">
       <c r="C9" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A9&amp;"&lt;/td&gt;
@@ -1099,7 +1795,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:3">
       <c r="C10" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A10&amp;"&lt;/td&gt;
@@ -1119,7 +1815,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="3:3">
       <c r="C11" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A11&amp;"&lt;/td&gt;
@@ -1139,7 +1835,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:3">
       <c r="C12" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A12&amp;"&lt;/td&gt;
@@ -1159,7 +1855,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:3">
       <c r="C13" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A13&amp;"&lt;/td&gt;
@@ -1179,7 +1875,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="3:3">
       <c r="C14" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A14&amp;"&lt;/td&gt;
@@ -1194,12 +1890,12 @@
 &lt;td data-label="计划标题"&gt;小区物业服务合同放到网上供业主随时查看&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2018年12月28日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="3:3">
       <c r="C15" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A15&amp;"&lt;/td&gt;
@@ -1219,7 +1915,7 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:3">
       <c r="C16" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A16&amp;"&lt;/td&gt;
@@ -1247,7 +1943,60 @@
 &lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C17&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D17,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E17&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F17&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F18&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181230&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;罗湖金岸小区电梯更新改造工程&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;无&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;未开始&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="e">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D18,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E18&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D19,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E19&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F19&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181213&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;更换大堂玻璃门地弹簧&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D20,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E20&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F20&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1259,15 +2008,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D18,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F18&amp;"&lt;/td&gt;
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D21,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E21&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F21&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1279,15 +2028,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A19&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B19&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C19&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D19,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E19&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F19&amp;"&lt;/td&gt;
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D22,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E22&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F22&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1299,15 +2048,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A20&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B20&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C20&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D20,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E20&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F20&amp;"&lt;/td&gt;
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D23,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E23&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F23&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1319,15 +2068,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A21&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B21&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C21&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D21,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E21&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F21&amp;"&lt;/td&gt;
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D24,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E24&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F24&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1339,15 +2088,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A22&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B22&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C22&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D22,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E22&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F22&amp;"&lt;/td&gt;
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D25,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E25&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F25&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1359,15 +2108,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A23&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B23&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C23&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D23,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E23&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F23&amp;"&lt;/td&gt;
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D26,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E26&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F26&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1379,15 +2128,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A24&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B24&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C24&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D24,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E24&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F24&amp;"&lt;/td&gt;
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D27,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E27&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F27&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1399,15 +2148,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A25&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B25&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C25&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D25,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E25&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F25&amp;"&lt;/td&gt;
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D28,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E28&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F28&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1419,15 +2168,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A26&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B26&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C26&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D26,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E26&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F26&amp;"&lt;/td&gt;
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D29,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E29&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F29&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1439,15 +2188,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A27&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B27&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C27&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D27,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E27&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F27&amp;"&lt;/td&gt;
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D30,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E30&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F30&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1459,15 +2208,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A28&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B28&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C28&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D28,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E28&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F28&amp;"&lt;/td&gt;
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D31,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E31&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F31&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1479,15 +2228,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A29&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B29&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C29&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D29,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E29&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F29&amp;"&lt;/td&gt;
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D32,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E32&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F32&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1499,15 +2248,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A30&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B30&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C30&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D30,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E30&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F30&amp;"&lt;/td&gt;
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D33,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E33&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F33&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1519,15 +2268,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A31&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B31&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C31&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D31,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E31&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F31&amp;"&lt;/td&gt;
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D34,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E34&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F34&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1539,15 +2288,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A32&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B32&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C32&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D32,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E32&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F32&amp;"&lt;/td&gt;
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D35,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E35&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F35&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1559,15 +2308,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A33&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B33&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C33&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D33,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E33&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F33&amp;"&lt;/td&gt;
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D36,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E36&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F36&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1579,15 +2328,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A34&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B34&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C34&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D34,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E34&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F34&amp;"&lt;/td&gt;
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D37,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E37&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F37&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1599,15 +2348,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A35&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B35&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C35&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D35,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E35&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F35&amp;"&lt;/td&gt;
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D38,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E38&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F38&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1619,15 +2368,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A36&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B36&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C36&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D36,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E36&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F36&amp;"&lt;/td&gt;
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D39,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E39&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F39&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1639,15 +2388,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A37&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B37&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C37&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D37,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E37&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F37&amp;"&lt;/td&gt;
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D40,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F40&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1659,15 +2408,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A38&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B38&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C38&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D38,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E38&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F38&amp;"&lt;/td&gt;
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D41,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E41&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F41&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1679,15 +2428,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A39&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B39&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C39&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D39,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E39&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F39&amp;"&lt;/td&gt;
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D42,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E42&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F42&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1699,15 +2448,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A40&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B40&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C40&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D40,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E40&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F40&amp;"&lt;/td&gt;
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D43,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F43&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1719,15 +2468,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A41&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B41&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C41&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D41,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E41&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F41&amp;"&lt;/td&gt;
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D44,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F44&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1739,15 +2488,15 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A42&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B42&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C42&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D42,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E42&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F42&amp;"&lt;/td&gt;
+    <row r="45" spans="3:3">
+      <c r="C45" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D45,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E45&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F45&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
@@ -1759,81 +2508,26 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A43&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B43&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C43&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D43,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E43&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F43&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D44,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F44&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A45&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B45&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C45&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D45,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E45&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F45&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1609,10 +1609,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J45"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C2:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1620,7 +1620,11 @@
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="1:3">
+      <c r="A2" t="str">
+        <f>IF(Sheet1!E2="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C2" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A2&amp;"&lt;/td&gt;
@@ -1640,7 +1644,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="1:10">
+      <c r="A3" t="str">
+        <f>IF(Sheet1!E3="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C3" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A3&amp;"&lt;/td&gt;
@@ -1663,7 +1671,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="1:10">
+      <c r="A4" t="str">
+        <f>IF(Sheet1!E4="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C4" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A4&amp;"&lt;/td&gt;
@@ -1686,7 +1698,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="1:10">
+      <c r="A5" t="str">
+        <f>IF(Sheet1!E5="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C5" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A5&amp;"&lt;/td&gt;
@@ -1709,7 +1725,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="1:10">
+      <c r="A6" t="str">
+        <f>IF(Sheet1!E6="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C6" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A6&amp;"&lt;/td&gt;
@@ -1732,7 +1752,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
+    <row r="7" spans="1:10">
+      <c r="A7" t="str">
+        <f>IF(Sheet1!E7="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A7&amp;"&lt;/td&gt;
@@ -1755,7 +1779,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:3">
+      <c r="A8" t="str">
+        <f>IF(Sheet1!E8="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C8" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A8&amp;"&lt;/td&gt;
@@ -1775,7 +1803,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3">
+      <c r="A9" t="str">
+        <f>IF(Sheet1!E9="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C9" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A9&amp;"&lt;/td&gt;
@@ -1795,7 +1827,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:3">
+      <c r="A10" t="str">
+        <f>IF(Sheet1!E10="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C10" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A10&amp;"&lt;/td&gt;
@@ -1815,7 +1851,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3">
+      <c r="A11" t="str">
+        <f>IF(Sheet1!E11="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C11" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A11&amp;"&lt;/td&gt;
@@ -1835,7 +1875,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3">
+      <c r="A12" t="str">
+        <f>IF(Sheet1!E12="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C12" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A12&amp;"&lt;/td&gt;
@@ -1855,7 +1899,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3">
+      <c r="A13" t="str">
+        <f>IF(Sheet1!E13="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C13" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A13&amp;"&lt;/td&gt;
@@ -1875,7 +1923,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:3">
+      <c r="A14" t="str">
+        <f>IF(Sheet1!E14="已完成","goo","")</f>
+        <v>goo</v>
+      </c>
       <c r="C14" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A14&amp;"&lt;/td&gt;
@@ -1895,7 +1947,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:3">
+      <c r="A15" t="str">
+        <f>IF(Sheet1!E15="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C15" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A15&amp;"&lt;/td&gt;
@@ -1915,7 +1971,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:3">
+      <c r="A16" t="str">
+        <f>IF(Sheet1!E16="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C16" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A16&amp;"&lt;/td&gt;
@@ -1935,7 +1995,11 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <f>IF(Sheet1!E17="已完成","goo","")</f>
+        <v/>
+      </c>
       <c r="C17" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A17&amp;"&lt;/td&gt;
@@ -1955,21 +2019,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="e">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D18,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E18&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="str">
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <f>IF(Sheet1!E18="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C18" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A19&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B19&amp;"&lt;/td&gt;
@@ -1988,8 +2043,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="str">
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
+        <f>IF(Sheet1!E19="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A20&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B20&amp;"&lt;/td&gt;
@@ -2008,8 +2067,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="str">
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
+        <f>IF(Sheet1!E20="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C20" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A21&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B21&amp;"&lt;/td&gt;
@@ -2028,8 +2091,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="str">
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
+        <f>IF(Sheet1!E21="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C21" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A22&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B22&amp;"&lt;/td&gt;
@@ -2048,8 +2115,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="str">
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <f>IF(Sheet1!E22="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C22" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A23&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B23&amp;"&lt;/td&gt;
@@ -2068,8 +2139,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="str">
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f>IF(Sheet1!E23="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C23" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A24&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B24&amp;"&lt;/td&gt;
@@ -2088,8 +2163,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="str">
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f>IF(Sheet1!E24="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C24" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A25&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B25&amp;"&lt;/td&gt;
@@ -2108,8 +2187,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="str">
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f>IF(Sheet1!E25="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C25" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A26&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B26&amp;"&lt;/td&gt;
@@ -2128,8 +2211,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="str">
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A27&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B27&amp;"&lt;/td&gt;
@@ -2148,8 +2231,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="str">
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A28&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B28&amp;"&lt;/td&gt;
@@ -2168,8 +2251,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="str">
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A29&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B29&amp;"&lt;/td&gt;
@@ -2188,8 +2271,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="str">
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A30&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B30&amp;"&lt;/td&gt;
@@ -2208,8 +2291,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="str">
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A31&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B31&amp;"&lt;/td&gt;
@@ -2228,8 +2311,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="1" t="str">
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A32&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B32&amp;"&lt;/td&gt;
@@ -2248,8 +2331,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="1" t="str">
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A33&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B33&amp;"&lt;/td&gt;
@@ -2268,8 +2351,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="1" t="str">
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A34&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B34&amp;"&lt;/td&gt;
@@ -2288,8 +2371,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="str">
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A35&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B35&amp;"&lt;/td&gt;
@@ -2308,8 +2391,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="1" t="str">
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A36&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B36&amp;"&lt;/td&gt;
@@ -2328,8 +2411,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="1" t="str">
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A37&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B37&amp;"&lt;/td&gt;
@@ -2348,8 +2431,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="1" t="str">
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A38&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B38&amp;"&lt;/td&gt;
@@ -2368,8 +2451,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="1" t="str">
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A39&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B39&amp;"&lt;/td&gt;
@@ -2388,8 +2471,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="1" t="str">
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A40&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B40&amp;"&lt;/td&gt;
@@ -2408,8 +2491,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="1" t="str">
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A41&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B41&amp;"&lt;/td&gt;
@@ -2428,8 +2511,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="1" t="str">
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A42&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B42&amp;"&lt;/td&gt;
@@ -2448,8 +2531,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="1" t="str">
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A43&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B43&amp;"&lt;/td&gt;
@@ -2468,8 +2551,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="1" t="str">
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A44&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B44&amp;"&lt;/td&gt;
@@ -2488,8 +2571,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="1" t="str">
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A45&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B45&amp;"&lt;/td&gt;

--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -174,7 +174,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,10 +210,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1108,7 +1108,7 @@
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="A2" t="str">
         <f>IF(Sheet1!E2="已完成","goo","")</f>
         <v/>
@@ -1164,47 +1164,7 @@
         <f>IF(Sheet1!#REF!="已完成","goo","")</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="1" t="e">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!#REF!,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="e">
-        <f>IF(Sheet1!#REF!="已完成","goo","")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!#REF!,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="str">
-        <f>IF(Sheet1!E4="已完成","goo","")</f>
-        <v/>
-      </c>
-      <c r="C6" s="1" t="str">
+      <c r="C4" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A4&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B4&amp;"&lt;/td&gt;
@@ -1222,16 +1182,16 @@
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="str">
-        <f>IF(Sheet1!E5="已完成","goo","")</f>
-        <v/>
-      </c>
-      <c r="C7" s="1" t="str">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="e">
+        <f>IF(Sheet1!#REF!="已完成","goo","")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A5&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B5&amp;"&lt;/td&gt;
@@ -1249,16 +1209,16 @@
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="str">
-        <f>IF(Sheet1!E6="已完成","goo","")</f>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="str">
+        <f>IF(Sheet1!E4="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A6&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B6&amp;"&lt;/td&gt;
@@ -1276,13 +1236,16 @@
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="str">
-        <f>IF(Sheet1!E7="已完成","goo","")</f>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="str">
+        <f>IF(Sheet1!E5="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C7" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A7&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B7&amp;"&lt;/td&gt;
@@ -1300,13 +1263,16 @@
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="str">
-        <f>IF(Sheet1!E8="已完成","goo","")</f>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="str">
+        <f>IF(Sheet1!E6="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C8" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A8&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B8&amp;"&lt;/td&gt;
@@ -1325,12 +1291,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="str">
-        <f>IF(Sheet1!E9="已完成","goo","")</f>
+    <row r="9" spans="1:10">
+      <c r="A9" t="str">
+        <f>IF(Sheet1!E7="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C9" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A9&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B9&amp;"&lt;/td&gt;
@@ -1349,12 +1315,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="str">
-        <f>IF(Sheet1!E10="已完成","goo","")</f>
+    <row r="10" spans="1:10">
+      <c r="A10" t="str">
+        <f>IF(Sheet1!E8="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C10" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A10&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B10&amp;"&lt;/td&gt;
@@ -1373,12 +1339,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="str">
-        <f>IF(Sheet1!E11="已完成","goo","")</f>
+    <row r="11" spans="1:10">
+      <c r="A11" t="str">
+        <f>IF(Sheet1!E9="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C11" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A11&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B11&amp;"&lt;/td&gt;
@@ -1397,12 +1363,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="str">
-        <f>IF(Sheet1!E12="已完成","goo","")</f>
+    <row r="12" spans="1:10">
+      <c r="A12" t="str">
+        <f>IF(Sheet1!E10="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C12" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A12&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B12&amp;"&lt;/td&gt;
@@ -1421,12 +1387,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="str">
-        <f>IF(Sheet1!E13="已完成","goo","")</f>
+    <row r="13" spans="1:10">
+      <c r="A13" t="str">
+        <f>IF(Sheet1!E11="已完成","goo","")</f>
         <v/>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C13" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A13&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B13&amp;"&lt;/td&gt;
@@ -1445,12 +1411,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="str">
-        <f>IF(Sheet1!E14="已完成","goo","")</f>
-        <v>goo</v>
-      </c>
-      <c r="C16" s="1" t="str">
+    <row r="14" spans="1:10">
+      <c r="A14" t="str">
+        <f>IF(Sheet1!E12="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C14" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A14&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B14&amp;"&lt;/td&gt;
@@ -1469,29 +1435,36 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="e">
-        <f>IF(Sheet1!#REF!="已完成","goo","")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C17" s="1" t="e">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!#REF!,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!#REF!&amp;"&lt;/td&gt;
+    <row r="15" spans="1:10">
+      <c r="A15" t="str">
+        <f>IF(Sheet1!E13="已完成","goo","")</f>
+        <v/>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C15&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D15,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E15&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F15&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="str">
-        <f>IF(Sheet1!E15="已完成","goo","")</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;20181224&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;全面恢复小区门禁系统&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
+&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="str">
+        <f>IF(Sheet1!E14="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C16" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A16&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B16&amp;"&lt;/td&gt;
@@ -1510,12 +1483,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="str">
-        <f>IF(Sheet1!E16="已完成","goo","")</f>
-        <v>goo</v>
-      </c>
-      <c r="C19" s="1" t="str">
+    <row r="17" spans="1:3">
+      <c r="A17" t="e">
+        <f>IF(Sheet1!#REF!="已完成","goo","")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A17&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B17&amp;"&lt;/td&gt;
@@ -1534,12 +1507,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="str">
-        <f>IF(Sheet1!E17="已完成","goo","")</f>
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <f>IF(Sheet1!E15="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C18" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A18&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B18&amp;"&lt;/td&gt;
@@ -1558,12 +1531,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="str">
-        <f>IF(Sheet1!E18="已完成","goo","")</f>
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
+        <f>IF(Sheet1!E16="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C19" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A19&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B19&amp;"&lt;/td&gt;
@@ -1582,12 +1555,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="str">
-        <f>IF(Sheet1!E19="已完成","goo","")</f>
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
+        <f>IF(Sheet1!E17="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C20" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A20&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B20&amp;"&lt;/td&gt;
@@ -1606,12 +1579,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="str">
-        <f>IF(Sheet1!E20="已完成","goo","")</f>
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
+        <f>IF(Sheet1!E18="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C21" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A21&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B21&amp;"&lt;/td&gt;
@@ -1630,12 +1603,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="str">
-        <f>IF(Sheet1!E21="已完成","goo","")</f>
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <f>IF(Sheet1!E19="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C22" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A22&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B22&amp;"&lt;/td&gt;
@@ -1654,12 +1627,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="str">
-        <f>IF(Sheet1!E22="已完成","goo","")</f>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f>IF(Sheet1!E20="已完成","goo","")</f>
         <v>goo</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C23" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A23&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B23&amp;"&lt;/td&gt;
@@ -1678,8 +1651,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="1" t="str">
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f>IF(Sheet1!E21="已完成","goo","")</f>
+        <v>goo</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A24&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B24&amp;"&lt;/td&gt;
@@ -1698,8 +1675,12 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="1" t="str">
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f>IF(Sheet1!E22="已完成","goo","")</f>
+        <v>goo</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A25&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B25&amp;"&lt;/td&gt;
@@ -1718,8 +1699,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="1" t="str">
+    <row r="26" spans="1:3">
+      <c r="C26" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A26&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B26&amp;"&lt;/td&gt;
@@ -1738,8 +1719,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="1" t="str">
+    <row r="27" spans="1:3">
+      <c r="C27" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A27&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B27&amp;"&lt;/td&gt;
@@ -1758,8 +1739,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="1" t="str">
+    <row r="28" spans="1:3">
+      <c r="C28" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A28&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B28&amp;"&lt;/td&gt;
@@ -1778,8 +1759,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="1" t="str">
+    <row r="29" spans="1:3">
+      <c r="C29" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A29&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B29&amp;"&lt;/td&gt;
@@ -1798,8 +1779,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="1" t="str">
+    <row r="30" spans="1:3">
+      <c r="C30" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A30&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B30&amp;"&lt;/td&gt;
@@ -1818,8 +1799,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="1" t="str">
+    <row r="31" spans="1:3">
+      <c r="C31" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A31&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B31&amp;"&lt;/td&gt;
@@ -1838,8 +1819,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="1" t="str">
+    <row r="32" spans="1:3">
+      <c r="C32" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A32&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B32&amp;"&lt;/td&gt;
@@ -1858,8 +1839,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="str">
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A33&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B33&amp;"&lt;/td&gt;
@@ -1878,8 +1859,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="1" t="str">
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A34&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B34&amp;"&lt;/td&gt;
@@ -1898,8 +1879,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="1" t="str">
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A35&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B35&amp;"&lt;/td&gt;
@@ -1918,8 +1899,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="1" t="str">
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A36&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B36&amp;"&lt;/td&gt;
@@ -1938,8 +1919,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="1" t="str">
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A37&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B37&amp;"&lt;/td&gt;
@@ -1958,8 +1939,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="1" t="str">
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A38&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B38&amp;"&lt;/td&gt;
@@ -1978,8 +1959,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="1" t="str">
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A39&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B39&amp;"&lt;/td&gt;
@@ -1998,8 +1979,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="1" t="str">
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A40&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B40&amp;"&lt;/td&gt;
@@ -2018,8 +1999,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="1" t="str">
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A41&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B41&amp;"&lt;/td&gt;
@@ -2038,8 +2019,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="1" t="str">
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A42&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B42&amp;"&lt;/td&gt;
@@ -2047,6 +2028,46 @@
 &lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D42,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E42&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F42&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D43,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E43&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F43&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="str">
+        <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D44,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E44&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F44&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;

--- a/activity/计划.xlsx
+++ b/activity/计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>计划编号</t>
   </si>
@@ -154,19 +154,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,20 +193,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -595,15 +585,15 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20190103</v>
+        <v>20190105</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
         <v>43495</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -615,13 +605,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20190105</v>
+        <v>20190106</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>43495</v>
@@ -635,10 +625,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20190106</v>
+        <v>20190107</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -655,10 +645,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20190107</v>
+        <v>20190108</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -675,10 +665,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20190108</v>
+        <v>20190109</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -695,16 +685,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20190109</v>
+        <v>20181225</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="3">
-        <v>43495</v>
+        <v>43496</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -715,10 +705,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20181225</v>
+        <v>20181226</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -735,16 +725,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20181226</v>
+        <v>20181218</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -755,16 +745,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20181218</v>
+        <v>20181215</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>43524</v>
+        <v>43600</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -775,19 +765,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20181215</v>
+        <v>20181227</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3">
-        <v>43600</v>
+        <v>43462</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -795,16 +785,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20181227</v>
+        <v>20181224</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
-        <v>43462</v>
+        <v>43475</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>26</v>
@@ -815,13 +805,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20181224</v>
+        <v>20181214</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>43475</v>
@@ -835,13 +825,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20181214</v>
+        <v>20181213</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3">
         <v>43475</v>
@@ -855,16 +845,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20181213</v>
+        <v>20181219</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>43475</v>
+        <v>43485</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>26</v>
@@ -875,16 +865,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20181219</v>
+        <v>20190110</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
-        <v>43485</v>
+        <v>43490</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>26</v>
@@ -895,16 +885,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20190110</v>
+        <v>20190104</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>26</v>
@@ -915,16 +905,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20190104</v>
+        <v>20190111</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
-        <v>43492</v>
+        <v>43493</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>26</v>
@@ -935,16 +925,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20190111</v>
+        <v>20181217</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3">
-        <v>43493</v>
+        <v>43495</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>26</v>
@@ -955,13 +945,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20181217</v>
+        <v>20181221</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3">
         <v>43495</v>
@@ -975,13 +965,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20181221</v>
+        <v>20181222</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3">
         <v>43495</v>
@@ -995,10 +985,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20181222</v>
+        <v>20181223</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1014,24 +1004,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20181223</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3">
-        <v>43495</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6">
       <c r="D26" s="3"/>
@@ -1080,10 +1054,6 @@
     <row r="37" spans="4:5">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:F25">
@@ -1100,7 +1070,7 @@
   <dimension ref="A2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C44"/>
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1174,9 +1144,9 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F4&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190103&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;小区总水、电表费用结算并过户&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190105&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;小区部分区域绿化升级改造&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;清洁环境部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
@@ -1201,9 +1171,9 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F5&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190105&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;小区部分区域绿化升级改造&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;清洁环境部&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190106&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;小区、商铺监控系统升级改造&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
@@ -1214,9 +1184,9 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="str">
-        <f>IF(Sheet1!E4="已完成","goo","")</f>
-        <v/>
+      <c r="A6" t="e">
+        <f>IF(Sheet1!#REF!="已完成","goo","")</f>
+        <v>#REF!</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>"&lt;tr&gt;
@@ -1228,8 +1198,8 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F6&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190106&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;小区、商铺监控系统升级改造&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190107&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;客服中心办公室改造&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
@@ -1242,7 +1212,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="str">
-        <f>IF(Sheet1!E5="已完成","goo","")</f>
+        <f>IF(Sheet1!E4="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C7" s="1" t="str">
@@ -1255,8 +1225,8 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F7&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190107&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;客服中心办公室改造&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190108&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;节能水泵改造设备入场&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
@@ -1269,7 +1239,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="str">
-        <f>IF(Sheet1!E6="已完成","goo","")</f>
+        <f>IF(Sheet1!E5="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C8" s="1" t="str">
@@ -1282,8 +1252,8 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F8&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190108&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;节能水泵改造设备入场&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190109&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;对9台电梯进行安全排查、制定维修方案&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
@@ -1293,7 +1263,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="str">
-        <f>IF(Sheet1!E7="已完成","goo","")</f>
+        <f>IF(Sheet1!E6="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C9" s="1" t="str">
@@ -1306,10 +1276,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F9&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190109&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;对9台电梯进行安全排查、制定维修方案&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181225&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;修补小区地面损坏瓷砖&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1317,7 +1287,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="str">
-        <f>IF(Sheet1!E8="已完成","goo","")</f>
+        <f>IF(Sheet1!E7="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C10" s="1" t="str">
@@ -1330,8 +1300,8 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F10&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181225&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;修补小区地面损坏瓷砖&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181226&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;全面恢复监控系统&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
@@ -1341,7 +1311,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="str">
-        <f>IF(Sheet1!E9="已完成","goo","")</f>
+        <f>IF(Sheet1!E8="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C11" s="1" t="str">
@@ -1354,10 +1324,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F11&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181226&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;全面恢复监控系统&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月31日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181218&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;组织全面清理楼道及公共区域大件垃圾，改善小区卫生环境&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年02月28日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1365,7 +1335,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="str">
-        <f>IF(Sheet1!E10="已完成","goo","")</f>
+        <f>IF(Sheet1!E9="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C12" s="1" t="str">
@@ -1378,10 +1348,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F12&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181218&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;组织全面清理楼道及公共区域大件垃圾，改善小区卫生环境&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年02月28日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181215&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;建立业主档案和银行账户托收协议的办理&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年05月15日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1389,7 +1359,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="str">
-        <f>IF(Sheet1!E11="已完成","goo","")</f>
+        <f>IF(Sheet1!E10="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C13" s="1" t="str">
@@ -1402,18 +1372,18 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F13&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181215&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;建立业主档案和银行账户托收协议的办理&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年05月15日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;进行中&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181227&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;小区物业服务合同放到网上供业主随时查看&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2018年12月28日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="str">
-        <f>IF(Sheet1!E12="已完成","goo","")</f>
+        <f>IF(Sheet1!E11="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C14" s="1" t="str">
@@ -1426,10 +1396,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F14&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181227&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;小区物业服务合同放到网上供业主随时查看&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;业委会&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2018年12月28日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181224&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;全面恢复小区门禁系统&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1437,7 +1407,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="str">
-        <f>IF(Sheet1!E13="已完成","goo","")</f>
+        <f>IF(Sheet1!E12="已完成","goo","")</f>
         <v/>
       </c>
       <c r="C15" s="1" t="str">
@@ -1450,9 +1420,9 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F15&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181224&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;全面恢复小区门禁系统&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181214&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;恢复小区观赏池&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
@@ -1461,7 +1431,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="str">
-        <f>IF(Sheet1!E14="已完成","goo","")</f>
+        <f>IF(Sheet1!E13="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -1474,9 +1444,9 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F16&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181214&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;恢复小区观赏池&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181213&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;更换大堂玻璃门地弹簧&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
@@ -1498,10 +1468,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F17&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181213&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;更换大堂玻璃门地弹簧&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月10日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181219&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;改造补种小区绿化，消除黄土裸露&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月20日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1509,7 +1479,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
-        <f>IF(Sheet1!E15="已完成","goo","")</f>
+        <f>IF(Sheet1!E14="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -1522,10 +1492,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F18&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181219&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;改造补种小区绿化，消除黄土裸露&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;环境部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月20日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190110&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;春节前对小区设施设备安全大检查&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月25日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1533,7 +1503,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="str">
-        <f>IF(Sheet1!E16="已完成","goo","")</f>
+        <f>IF(Sheet1!E15="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C19" s="1" t="str">
@@ -1546,10 +1516,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F19&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190110&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;春节前对小区设施设备安全大检查&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月25日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190104&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;2019年春节小区装饰布置&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月27日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1557,7 +1527,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="str">
-        <f>IF(Sheet1!E17="已完成","goo","")</f>
+        <f>IF(Sheet1!E16="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C20" s="1" t="str">
@@ -1570,10 +1540,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F20&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190104&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;2019年春节小区装饰布置&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月27日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20190111&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;春节前对小区大厅、地面清洗&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;清洁环境部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月28日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1581,7 +1551,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="str">
-        <f>IF(Sheet1!E18="已完成","goo","")</f>
+        <f>IF(Sheet1!E17="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C21" s="1" t="str">
@@ -1594,10 +1564,10 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F21&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20190111&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;春节前对小区大厅、地面清洗&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;清洁环境部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月28日&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181217&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;整理规范所有小区分包方和供应商，签订合同（电梯、消防、清洁等）&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
 &lt;/tr&gt;</v>
@@ -1605,7 +1575,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="str">
-        <f>IF(Sheet1!E19="已完成","goo","")</f>
+        <f>IF(Sheet1!E18="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -1618,9 +1588,9 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F22&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181217&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;整理规范所有小区分包方和供应商，签订合同（电梯、消防、清洁等）&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;客服部&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181221&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;开展小区消防灭火应急演练2次&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
@@ -1629,7 +1599,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="str">
-        <f>IF(Sheet1!E20="已完成","goo","")</f>
+        <f>IF(Sheet1!E19="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -1642,9 +1612,9 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F23&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181221&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;开展小区消防灭火应急演练2次&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;秩序维护部&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181222&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;三栋2套速递柜搬迁移位&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
 &lt;td data-label="备注"&gt;无&lt;/td&gt;
@@ -1653,7 +1623,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="str">
-        <f>IF(Sheet1!E21="已完成","goo","")</f>
+        <f>IF(Sheet1!E20="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C24" s="1" t="str">
@@ -1666,8 +1636,8 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F24&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181222&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;三栋2套速递柜搬迁移位&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;20181223&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;启动节能水泵改造评估&lt;/td&gt;
 &lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
 &lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
 &lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
@@ -1677,7 +1647,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="str">
-        <f>IF(Sheet1!E22="已完成","goo","")</f>
+        <f>IF(Sheet1!E21="已完成","goo","")</f>
         <v>goo</v>
       </c>
       <c r="C25" s="1" t="str">
@@ -1690,12 +1660,12 @@
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F25&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;20181223&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;启动节能水泵改造评估&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;工程部&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;2019年01月30日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;已完成&lt;/td&gt;
-&lt;td data-label="备注"&gt;无&lt;/td&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
 &lt;/tr&gt;</v>
       </c>
     </row>
@@ -2002,6 +1972,26 @@
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="str">
         <f>"&lt;tr&gt;
+&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D40,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E40&amp;"&lt;/td&gt;
+&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F40&amp;"&lt;/td&gt;
+&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;
+&lt;td data-label="计划编号"&gt;&lt;/td&gt;
+&lt;td data-label="计划标题"&gt;&lt;/td&gt;
+&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
+&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
+&lt;td data-label="计划状态"&gt;&lt;/td&gt;
+&lt;td data-label="备注"&gt;&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="str">
+        <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A41&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B41&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C41&amp;"&lt;/td&gt;
@@ -2019,8 +2009,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="1" t="str">
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A42&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B42&amp;"&lt;/td&gt;
@@ -2039,8 +2029,8 @@
 &lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="1" t="str">
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="str">
         <f>"&lt;tr&gt;
 &lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A43&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B43&amp;"&lt;/td&gt;
@@ -2048,26 +2038,6 @@
 &lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D43,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E43&amp;"&lt;/td&gt;
 &lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F43&amp;"&lt;/td&gt;
-&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;
-&lt;td data-label="计划编号"&gt;&lt;/td&gt;
-&lt;td data-label="计划标题"&gt;&lt;/td&gt;
-&lt;td data-label="责任部门/人"&gt;&lt;/td&gt;
-&lt;td data-label="预计完成时间"&gt;1900年01月00日&lt;/td&gt;
-&lt;td data-label="计划状态"&gt;&lt;/td&gt;
-&lt;td data-label="备注"&gt;&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="1" t="str">
-        <f>"&lt;tr&gt;
-&lt;td data-label="""&amp;Sheet1!$A$1&amp;"""&gt;"&amp;Sheet1!$A44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$B$1&amp;"""&gt;"&amp;Sheet1!$B44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$C$1&amp;"""&gt;"&amp;Sheet1!$C44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$D$1&amp;"""&gt;"&amp;TEXT(Sheet1!$D44,"yyyy年mm月dd日")&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$E$1&amp;"""&gt;"&amp;Sheet1!$E44&amp;"&lt;/td&gt;
-&lt;td data-label="""&amp;Sheet1!$F$1&amp;"""&gt;"&amp;Sheet1!$F44&amp;"&lt;/td&gt;
 &lt;/tr&gt;"</f>
         <v>&lt;tr&gt;
 &lt;td data-label="计划编号"&gt;&lt;/td&gt;
